--- a/apifile/ChartController.xlsx
+++ b/apifile/ChartController.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49262461-053B-4805-AAFA-2F35842FE4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B161B-EAE9-43C8-B7FB-08E536A2E0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>url</t>
   </si>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/build/data?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
@@ -67,18 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/business/event/statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/countManagerBar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/device/chart?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 业务告警类型数量统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,19 +77,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/device/event/statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 设备告警类型数量统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/device/growth/rate?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备数量增长率报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,37 +91,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/device/number?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/deviceOnlineSum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 在线设备总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/deviceStatusPie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 设备状态统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/deviceSum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/deviceTypePie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,56 +110,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/energyStatistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 获取能耗报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/event/list?pageNum=10&amp;pageSize=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前事件列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/event/status/statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务告警类型数量统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/event/total/number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件总数统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/event/type/statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日事件类型统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/lightUpRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取亮灯率报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/lightingTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,76 +140,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/manager/chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/onLineRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取上线率报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/online/chart?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备在线相关报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/online/growth/rate?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备在线数量增长率报表</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/online/number?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备在线数量报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/online/rate?num=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备在线率报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/refresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/sum/chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各个计数器统计的综合报表</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/typeStatistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备类型在线统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/chart/vehicleSum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>载体总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/build/data?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/business/event/statistic</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/countManagerBar</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/device/chart?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/device/event/statistic</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/device/growth/rate?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/device/number?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/deviceOnlineSum</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/deviceStatusPie</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/deviceSum</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/deviceTypePie</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/energyStatistics</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/event/list?pageNum=10&amp;pageSize=1</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/event/status/statistic</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/event/total/number</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/event/type/statistics</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/lightingTime</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/manager/chart</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/onLineRate</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/online/chart?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/online/growth/rate?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/online/number?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/online/rate?num=10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/typeStatistic</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/vehicleSum</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/lightUpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/chart/sum/chart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,27 +657,27 @@
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>200</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -719,15 +686,15 @@
         <v>200</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -736,15 +703,15 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -753,15 +720,15 @@
         <v>200</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -770,15 +737,15 @@
         <v>200</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -787,15 +754,15 @@
         <v>200</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -804,15 +771,15 @@
         <v>200</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -821,15 +788,15 @@
         <v>200</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -838,15 +805,15 @@
         <v>200</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -855,15 +822,15 @@
         <v>200</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -872,15 +839,15 @@
         <v>200</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -889,15 +856,15 @@
         <v>200</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -906,15 +873,15 @@
         <v>200</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -923,15 +890,15 @@
         <v>200</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
@@ -940,15 +907,15 @@
         <v>200</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
@@ -957,15 +924,15 @@
         <v>200</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -974,15 +941,15 @@
         <v>200</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
@@ -991,15 +958,15 @@
         <v>200</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
@@ -1008,15 +975,15 @@
         <v>200</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
@@ -1025,15 +992,15 @@
         <v>200</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
@@ -1042,15 +1009,15 @@
         <v>200</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
@@ -1059,15 +1026,15 @@
         <v>200</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
@@ -1076,15 +1043,15 @@
         <v>200</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
@@ -1093,15 +1060,15 @@
         <v>200</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>57</v>
+      <c r="A26" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
@@ -1109,16 +1076,16 @@
       <c r="E26" s="4">
         <v>200</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>58</v>
+      <c r="G26" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
@@ -1127,15 +1094,15 @@
         <v>200</v>
       </c>
       <c r="G27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
@@ -1143,60 +1110,42 @@
       <c r="E28" s="4">
         <v>200</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4">
-        <v>200</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>64</v>
+      <c r="G28" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{48A44630-4D61-475E-8EB7-EBE527CDC54B}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C05A0284-9F9A-4457-A1F2-BBA588C88622}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{08D31604-7E3E-4E2C-97FA-6E403E667120}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{09553596-15F0-45ED-B7C4-81BA480227F9}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{7A6A58DF-C76B-4C13-BE7F-D9A5323FB0A3}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{3636A1CA-D019-4977-804B-7B727E6FD8E2}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{C4923FFD-B1D0-484D-AB72-0D8AE1FC6EB8}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{F7407328-CCA7-414A-9339-56BB0E0C1B41}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{548426F4-B533-404E-8D51-CCB7559E958D}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{80F53A27-5B2E-40D5-8367-0AFE86E4B322}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{9C097707-9E57-4AEE-8FFB-8C0138B45AFF}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{76757883-47BC-4CD1-AAC0-E56194D867B0}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{83F05378-B00C-4B67-A488-ADD4C196D55F}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{93104121-8425-472D-B68F-8E9617D1CB2E}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{B3CB9BC0-0D99-4E98-A2A6-20F7E1EA753F}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{E18BBDFF-B015-473C-A9AA-8527A7956816}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/chart/build/data?num=10" xr:uid="{48A44630-4D61-475E-8EB7-EBE527CDC54B}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/chart/business/event/statistic" xr:uid="{C05A0284-9F9A-4457-A1F2-BBA588C88622}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/chart/countManagerBar" xr:uid="{08D31604-7E3E-4E2C-97FA-6E403E667120}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/chart/device/chart?num=10" xr:uid="{09553596-15F0-45ED-B7C4-81BA480227F9}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/chart/device/event/statistic" xr:uid="{7A6A58DF-C76B-4C13-BE7F-D9A5323FB0A3}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/chart/device/growth/rate?num=10" xr:uid="{3636A1CA-D019-4977-804B-7B727E6FD8E2}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/chart/device/number?num=10" xr:uid="{C4923FFD-B1D0-484D-AB72-0D8AE1FC6EB8}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://island.dev.iot-cas.com:8081/island/chart/deviceOnlineSum" xr:uid="{F7407328-CCA7-414A-9339-56BB0E0C1B41}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://island.dev.iot-cas.com:8081/island/chart/deviceStatusPie" xr:uid="{548426F4-B533-404E-8D51-CCB7559E958D}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://island.dev.iot-cas.com:8081/island/chart/deviceSum" xr:uid="{80F53A27-5B2E-40D5-8367-0AFE86E4B322}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://island.dev.iot-cas.com:8081/island/chart/deviceTypePie" xr:uid="{9C097707-9E57-4AEE-8FFB-8C0138B45AFF}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://island.dev.iot-cas.com:8081/island/chart/energyStatistics" xr:uid="{76757883-47BC-4CD1-AAC0-E56194D867B0}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://island.dev.iot-cas.com:8081/island/chart/event/list?pageNum=10&amp;pageSize=1" xr:uid="{83F05378-B00C-4B67-A488-ADD4C196D55F}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://island.dev.iot-cas.com:8081/island/chart/event/status/statistic" xr:uid="{93104121-8425-472D-B68F-8E9617D1CB2E}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://island.dev.iot-cas.com:8081/island/chart/event/total/number" xr:uid="{B3CB9BC0-0D99-4E98-A2A6-20F7E1EA753F}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://island.dev.iot-cas.com:8081/island/chart/event/type/statistics" xr:uid="{E18BBDFF-B015-473C-A9AA-8527A7956816}"/>
     <hyperlink ref="A18" r:id="rId17" xr:uid="{D12CEC58-B211-41EC-88AD-360B06DCD799}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{AEBB8A14-1FDD-4DCF-9597-F65BD510D1CF}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{CB3977E5-CB4B-46A4-8B2E-5B1E577A8C66}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{34C06F31-ADED-410B-A307-065C7C77EACD}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{EF6F916E-5FAF-479D-95B1-C880BA9848AB}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{46D237E8-4049-4F46-9F8C-1AA1D60351BC}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{DA226589-1CA8-44B8-B7EE-D4BA07A6E516}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{0530CF55-4C04-4263-9BC9-169F7F5EE6DC}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{7AA8E94C-4F3D-4016-9684-1752448BC5B3}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{712A2280-4AED-41D7-9508-829A3241BAFA}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{801C661F-952B-4D08-83EA-FCAB41ACB144}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{16A501E3-8235-4E13-AE3F-9CFD0346240B}"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://island.dev.iot-cas.com:8081/island/chart/lightingTime" xr:uid="{AEBB8A14-1FDD-4DCF-9597-F65BD510D1CF}"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://island.dev.iot-cas.com:8081/island/chart/manager/chart" xr:uid="{CB3977E5-CB4B-46A4-8B2E-5B1E577A8C66}"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://island.dev.iot-cas.com:8081/island/chart/onLineRate" xr:uid="{34C06F31-ADED-410B-A307-065C7C77EACD}"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://island.dev.iot-cas.com:8081/island/chart/online/chart?num=10" xr:uid="{EF6F916E-5FAF-479D-95B1-C880BA9848AB}"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://island.dev.iot-cas.com:8081/island/chart/online/growth/rate?num=10" xr:uid="{46D237E8-4049-4F46-9F8C-1AA1D60351BC}"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://island.dev.iot-cas.com:8081/island/chart/online/number?num=10" xr:uid="{DA226589-1CA8-44B8-B7EE-D4BA07A6E516}"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://island.dev.iot-cas.com:8081/island/chart/online/rate?num=10" xr:uid="{0530CF55-4C04-4263-9BC9-169F7F5EE6DC}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{712A2280-4AED-41D7-9508-829A3241BAFA}"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://island.dev.iot-cas.com:8081/island/chart/typeStatistic" xr:uid="{801C661F-952B-4D08-83EA-FCAB41ACB144}"/>
+    <hyperlink ref="A28" r:id="rId27" display="http://island.dev.iot-cas.com:8081/island/chart/vehicleSum" xr:uid="{16A501E3-8235-4E13-AE3F-9CFD0346240B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>